--- a/Income/TXT_inc.xlsx
+++ b/Income/TXT_inc.xlsx
@@ -1975,7 +1975,7 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.3489</v>
+        <v>0.1447</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0.1384</v>
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0.2811</v>
+        <v>0.0482</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0.0439</v>
